--- a/V2/data.xlsx
+++ b/V2/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B211BA7-7960-412C-8688-DC36DF0226F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083EB502-3D06-4B6E-A544-0F9B740C8F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Key Messages</t>
   </si>
@@ -55,15 +55,6 @@
     <t>Jak przystąpić do</t>
   </si>
   <si>
-    <t>Slide_1</t>
-  </si>
-  <si>
-    <t>Slide_4</t>
-  </si>
-  <si>
-    <t>Slide_5</t>
-  </si>
-  <si>
     <t>goTo button (position_count)</t>
   </si>
   <si>
@@ -76,10 +67,19 @@
     <t xml:space="preserve">ProjectID_ProjectName </t>
   </si>
   <si>
-    <t>Slide_2,Slide_1</t>
-  </si>
-  <si>
-    <t>Slide_3,Slide_5</t>
+    <t>Slide_1.jpg</t>
+  </si>
+  <si>
+    <t>Slide_2.jpg,Slide_1.jpg</t>
+  </si>
+  <si>
+    <t>Slide_4.jpg</t>
+  </si>
+  <si>
+    <t>Slide_5.jpg</t>
+  </si>
+  <si>
+    <t>Slide_3.png,Slide_5.jpg</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,13 +170,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -489,14 +498,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
@@ -505,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -516,11 +525,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -531,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -542,10 +551,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -556,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -564,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -575,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
